--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enzo_\Desktop\Olivos_Combustibles_SRL\Olivos_Combustibles_SRL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E40C7404-9894-48A7-A415-432CA5E26D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216D3FB0-76AC-47A2-AF9D-AF5FC2A49DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE220DE6-7F76-4E3B-9B83-551905549453}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DE220DE6-7F76-4E3B-9B83-551905549453}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Gastos</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Sueldos</t>
   </si>
   <si>
-    <t>PBI</t>
-  </si>
-  <si>
-    <t>Luz</t>
-  </si>
-  <si>
     <t>Bco</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Varios</t>
   </si>
   <si>
-    <t>IB</t>
-  </si>
-  <si>
     <t>Margen</t>
   </si>
   <si>
@@ -96,7 +87,40 @@
     <t>Quantium Diesel</t>
   </si>
   <si>
-    <t>GNC</t>
+    <t>Edenor</t>
+  </si>
+  <si>
+    <t>Camesa</t>
+  </si>
+  <si>
+    <t>IIBB</t>
+  </si>
+  <si>
+    <t>Coseno Fi</t>
+  </si>
+  <si>
+    <t>Carvota G.N.C.</t>
+  </si>
+  <si>
+    <t>Sindicato</t>
+  </si>
+  <si>
+    <t>Nosotros</t>
+  </si>
+  <si>
+    <t>IVA</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>G.N.C.</t>
+  </si>
+  <si>
+    <t>Salidas</t>
+  </si>
+  <si>
+    <t>Alquiles</t>
   </si>
 </sst>
 </file>
@@ -129,15 +153,44 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,12 +287,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -262,6 +331,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -271,10 +343,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -586,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5334A324-DE8E-42EA-B9EE-44CF385535AB}">
-  <dimension ref="C3:I44"/>
+  <dimension ref="C3:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,42 +715,44 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="6" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="5">
@@ -647,14 +764,14 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
+      <c r="E8" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="6">
@@ -666,14 +783,14 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
-        <v>3</v>
+      <c r="C9" s="19">
+        <v>931</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
+      <c r="E9" s="19" t="s">
+        <v>16</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="6">
@@ -685,14 +802,14 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>4</v>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>18</v>
+      <c r="E10" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="6">
@@ -704,32 +821,39 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>5</v>
+      <c r="C11" s="19" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="E11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="14">
+        <f>SUM(F7:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="15">
+        <f>SUM(G7:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
+        <f>F11*G11</f>
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="3" t="s">
-        <v>6</v>
+      <c r="C12" s="19" t="s">
+        <v>3</v>
       </c>
       <c r="D12" s="6">
         <v>0</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="F12" s="3"/>
       <c r="G12" s="6">
         <v>0</v>
@@ -740,30 +864,37 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>7</v>
+      <c r="C13" s="19" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="6">
         <v>0</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
+      <c r="E13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="12">
+        <f>SUM(F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <f>SUM(G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <f>F13*G13</f>
         <v>0</v>
       </c>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="3" t="s">
-        <v>8</v>
+      <c r="C14" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="19"/>
       <c r="F14" s="3"/>
       <c r="G14" s="6">
         <v>0</v>
@@ -774,13 +905,15 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
-        <v>9</v>
+      <c r="C15" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="D15" s="6">
         <v>0</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="6">
         <v>0</v>
@@ -791,13 +924,15 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>10</v>
+      <c r="C16" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="6">
         <v>0</v>
@@ -808,28 +943,37 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="3" t="s">
-        <v>11</v>
+      <c r="C17" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="D17" s="6">
         <v>0</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
+      <c r="E17" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16">
+        <f>SUM(F15:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <f>SUM(G15:G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <f>F17*G17</f>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
+      <c r="C18" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="D18" s="6">
         <v>0</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="3"/>
       <c r="G18" s="6">
         <v>0</v>
@@ -840,11 +984,13 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
+      <c r="C19" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="D19" s="6">
         <v>0</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="3"/>
       <c r="G19" s="6">
         <v>0</v>
@@ -855,11 +1001,13 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
+      <c r="C20" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="D20" s="6">
         <v>0</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6">
         <v>0</v>
@@ -870,11 +1018,13 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
+      <c r="C21" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="D21" s="6">
         <v>0</v>
       </c>
-      <c r="E21" s="3"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="3"/>
       <c r="G21" s="6">
         <v>0</v>
@@ -885,11 +1035,13 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
+      <c r="C22" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="D22" s="6">
         <v>0</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="19"/>
       <c r="F22" s="3"/>
       <c r="G22" s="6">
         <v>0</v>
@@ -900,11 +1052,13 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
+      <c r="C23" s="19" t="s">
+        <v>24</v>
+      </c>
       <c r="D23" s="6">
         <v>0</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="3"/>
       <c r="G23" s="6">
         <v>0</v>
@@ -915,11 +1069,11 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
+      <c r="C24" s="19"/>
       <c r="D24" s="6">
         <v>0</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="3"/>
       <c r="G24" s="6">
         <v>0</v>
@@ -930,11 +1084,11 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="6">
         <v>0</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="3"/>
       <c r="G25" s="6">
         <v>0</v>
@@ -945,11 +1099,11 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
+      <c r="C26" s="19"/>
       <c r="D26" s="6">
         <v>0</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="19"/>
       <c r="F26" s="3"/>
       <c r="G26" s="6">
         <v>0</v>
@@ -960,11 +1114,11 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
+      <c r="C27" s="19"/>
       <c r="D27" s="6">
         <v>0</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="3"/>
       <c r="G27" s="6">
         <v>0</v>
@@ -975,11 +1129,11 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="6">
         <v>0</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="3"/>
       <c r="G28" s="6">
         <v>0</v>
@@ -990,11 +1144,11 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="6">
         <v>0</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="3"/>
       <c r="G29" s="6">
         <v>0</v>
@@ -1005,11 +1159,11 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="6">
         <v>0</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="3"/>
       <c r="G30" s="6">
         <v>0</v>
@@ -1020,11 +1174,11 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="6">
         <v>0</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="3"/>
       <c r="G31" s="6">
         <v>0</v>
@@ -1035,11 +1189,11 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
+      <c r="C32" s="19"/>
       <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="3"/>
       <c r="G32" s="6">
         <v>0</v>
@@ -1050,11 +1204,11 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="6">
         <v>0</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="19"/>
       <c r="F33" s="3"/>
       <c r="G33" s="6">
         <v>0</v>
@@ -1065,11 +1219,11 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="6">
         <v>0</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="19"/>
       <c r="F34" s="3"/>
       <c r="G34" s="6">
         <v>0</v>
@@ -1080,11 +1234,11 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="6">
         <v>0</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="3"/>
       <c r="G35" s="6">
         <v>0</v>
@@ -1095,11 +1249,11 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
+      <c r="C36" s="19"/>
       <c r="D36" s="6">
         <v>0</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="3"/>
       <c r="G36" s="6">
         <v>0</v>
@@ -1110,11 +1264,11 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="6">
         <v>0</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="3"/>
       <c r="G37" s="6">
         <v>0</v>
@@ -1125,11 +1279,11 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="6">
         <v>0</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="19"/>
       <c r="F38" s="3"/>
       <c r="G38" s="6">
         <v>0</v>
@@ -1140,11 +1294,11 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
+      <c r="C39" s="19"/>
       <c r="D39" s="6">
         <v>0</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="3"/>
       <c r="G39" s="6">
         <v>0</v>
@@ -1155,11 +1309,11 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
+      <c r="C40" s="19"/>
       <c r="D40" s="6">
         <v>0</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="3"/>
       <c r="G40" s="6">
         <v>0</v>
@@ -1170,11 +1324,11 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
+      <c r="C41" s="19"/>
       <c r="D41" s="6">
         <v>0</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="3"/>
       <c r="G41" s="6">
         <v>0</v>
@@ -1185,11 +1339,11 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
+      <c r="C42" s="19"/>
       <c r="D42" s="6">
         <v>0</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="19"/>
       <c r="F42" s="3"/>
       <c r="G42" s="6">
         <v>0</v>
@@ -1200,11 +1354,11 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="6">
         <v>0</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="19"/>
       <c r="F43" s="3"/>
       <c r="G43" s="6">
         <v>0</v>
@@ -1215,11 +1369,11 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="4"/>
+      <c r="C44" s="19"/>
       <c r="D44" s="7">
         <v>0</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="4"/>
       <c r="G44" s="7">
         <v>0</v>
@@ -1229,6 +1383,31 @@
       </c>
       <c r="I44" s="4"/>
     </row>
+    <row r="45" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="23">
+        <f>SUM(D7:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="23">
+        <f>SUM(H11,H13,H17)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="25">
+        <f>D45-H45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="3:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C3:I3"/>
